--- a/EssilorLuxottica Projects/LUX - 7.0 - Retrieve SAP Bank Files/Data/CashAccountsTemplate.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.0 - Retrieve SAP Bank Files/Data/CashAccountsTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.0_Running Bank Files in SAP\LUX - 7.0 - Retrieve SAP Bank Files\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C24D0EA-E355-4678-8F7C-A497BBF2C640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DFFB5-A5D4-463A-BAC4-4508C0F6E225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Variant Name</t>
   </si>
@@ -56,40 +56,43 @@
     <t>LOB_106</t>
   </si>
   <si>
+    <t>LOB_105</t>
+  </si>
+  <si>
+    <t>LOB_108</t>
+  </si>
+  <si>
+    <t>LOB_134</t>
+  </si>
+  <si>
+    <t>LOB_901</t>
+  </si>
+  <si>
+    <t>LOB_906</t>
+  </si>
+  <si>
+    <t>LOB_907</t>
+  </si>
+  <si>
+    <t>LOB_917</t>
+  </si>
+  <si>
+    <t>LOB_140</t>
+  </si>
+  <si>
+    <t>042000314</t>
+  </si>
+  <si>
+    <t>021000021</t>
+  </si>
+  <si>
+    <t>061112788</t>
+  </si>
+  <si>
+    <t>100180</t>
+  </si>
+  <si>
     <t>0300</t>
-  </si>
-  <si>
-    <t>LOB_105</t>
-  </si>
-  <si>
-    <t>LOB_108</t>
-  </si>
-  <si>
-    <t>LOB_134</t>
-  </si>
-  <si>
-    <t>LOB_901</t>
-  </si>
-  <si>
-    <t>LOB_906</t>
-  </si>
-  <si>
-    <t>LOB_907</t>
-  </si>
-  <si>
-    <t>LOB_917</t>
-  </si>
-  <si>
-    <t>LOB_140</t>
-  </si>
-  <si>
-    <t>042000314</t>
-  </si>
-  <si>
-    <t>021000021</t>
-  </si>
-  <si>
-    <t>061112788</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +491,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>4943</v>
@@ -522,7 +525,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>4178</v>
@@ -539,13 +542,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100180</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>4427130300</v>
@@ -556,7 +559,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>7044</v>
@@ -568,12 +571,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>4991</v>
@@ -585,12 +588,12 @@
         <v>304804991</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>5009</v>
@@ -602,12 +605,12 @@
         <v>304805009</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>6362</v>
@@ -624,7 +627,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
         <v>1525</v>
@@ -636,14 +639,11 @@
         <v>3359871525</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B5" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>